--- a/AS2/consumer_research.xlsx
+++ b/AS2/consumer_research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaitlyn/Documents/GitHub/AS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17819A-DF0A-044B-9BAF-9337F1E583C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358E88B2-E183-344A-B529-D719FEAB574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{71CD27F9-9DEA-4107-BDCD-DDEC19E107F4}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" activeTab="6" xr2:uid="{71CD27F9-9DEA-4107-BDCD-DDEC19E107F4}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2866,14 +2866,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>814917</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>477027</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>96630</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434520</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>138043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3257,8 +3257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433E0F5D-E3FC-4AEF-9CF0-D51772125B88}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="109" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4692,7 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34E2B31-6F54-5F49-920C-E11E84607ECF}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="163" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
